--- a/frontend/src/assets/documents/profils_cognitifs.xlsx
+++ b/frontend/src/assets/documents/profils_cognitifs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anatole.marechal\OneDrive - LPO\RNF\Kit à partager\Outils annexes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\B-EXPERTISE ET PROJET FORMALISES\B7-ANCRAGE TERRITORIAL\SUIVI DAT\Correction_BAO\MAJ 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9411C0F-4C32-4DD6-8FD5-F764242CA34A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,34 +40,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contraints</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> regroupe l’ensemble des acteurs qui perçoivent un bilan négatif de la balance contraintes/avantages liée à la réserve naturelle, et qui sont souvent les opposants déclarés, ou au moins latents à la réserve naturelle. Ils sont généralement en situation de réactance vis-à-vis de la réserve naturelle, c’est-à-dire de rejet et de tension, voire de conflit ouvert avec ses gestionnaires. Au mieux, ils se méfient de la réserve naturelle. Dans les situations les plus conflictuelles, la réserve naturelle ne présente à leurs yeux aucun avantage, elle est « inutile ». Les contraintes dominent largement, et elles sont généralement d’ordre financière et réglementaire. Il est intéressant de noter qu’en cas d’opposition franche, cette perception de l’inconvénient réglementaire s’exprime de manière pessimiste en anticipant des changements futurs. Les contraints sont le plus souvent des usagers ou d'autres acteurs du territoire en situation de rejet à la fois cognitif, affectif, et conatif. Ils ressentent généralement une balance négative des coûts et bénéfices à titre individuel, et se projettent souvent de même à l’échelle du collectif. Les intérêts de ces acteurs et les rapports de force qui les défavorisent conduisent à une situation de conflit qui peut être de voisinage, d’usage, d’aménagement ou encore d’accès selon les cas. C’est la combinaison de ces deux éléments qui amène les acteurs à affirmer des perceptions de type contraints ». »</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">« Le profil des </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>territoriaux</t>
     </r>
     <r>
@@ -199,20 +172,23 @@
     </r>
   </si>
   <si>
-    <t>Document mis à disposition sous un contrat Creative Commons CC BY-NC-ND (4.0) https://creativecommons.org/licenses/by-nc-nd/4.0/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Territorial désintéressé : N’a pas ou peu d’intérêt vis-à-vis de la réserve ou de ses enjeux. Adopte une posture de retrait, de neutralité. N’apporte aucun appui, mais aucune menace non plus. Ne maitrise pas bien les éléments du contexte de la réserve. </t>
   </si>
   <si>
     <t>Territorial intéressé : Partage un ou plusieurs enjeux avec la réserve, qui induisent une implication de l’acteur vis-à-vis de la réserve. Cette implication prend la forme d’un soutien occasionnel, car l’acteur est sensible aux objectifs de la réserve. De plus,  la réserve peut se révéler être la source d’un partenariat intéressant, à développer ou pérenniser. Cet acteur peut progressivement devenir un acteur « Fédérateur » de la réserve.</t>
+  </si>
+  <si>
+    <t>Document mis à disposition sous une licence autorisant l’accès et le partage (cf. Mentions légales 2022)</t>
+  </si>
+  <si>
+    <t>« Le profil des contraints regroupe l’ensemble des acteurs qui perçoivent un bilan négatif de la balance contraintes/avantages liée à la réserve naturelle, et qui sont souvent les opposants déclarés, ou au moins latents à la réserve naturelle. Ils sont généralement en situation de réactance vis-à-vis de la réserve naturelle, c’est-à-dire de rejet et de tension, voire de conflit ouvert avec ses gestionnaires. Au mieux, ils se méfient de la réserve naturelle. Dans les situations les plus conflictuelles, la réserve naturelle ne présente à leurs yeux aucun avantage, elle est « inutile ». Les contraintes dominent largement, et elles sont généralement d’ordre financière et réglementaire. Il est intéressant de noter qu’en cas d’opposition franche, cette perception de l’inconvénient réglementaire s’exprime de manière pessimiste en anticipant des changements futurs. Les contraints sont le plus souvent des usagers ou d'autres acteurs du territoire en situation de rejet à la fois cognitif, affectif, et conatif. Ils ressentent généralement une balance négative des coûts et bénéfices à titre individuel, et se projettent souvent de même à l’échelle du collectif. Les intérêts de ces acteurs et les rapports de force qui les défavorisent conduisent à une situation de conflit qui peut être de voisinage, d’usage, d’aménagement ou encore d’accès selon les cas. C’est la combinaison de ces deux éléments qui amène les acteurs à affirmer des perceptions de type contraints »</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +244,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -485,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,17 +513,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 15" descr="rnf_logo"/>
+        <xdr:cNvPr id="4" name="Image 15" descr="rnf_logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -631,7 +623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 16" descr="LPO agir pour la biodiversité"/>
+        <xdr:cNvPr id="5" name="Image 16" descr="LPO agir pour la biodiversité">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -936,100 +934,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14"/>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
+      <c r="C1" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:3" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="15"/>
       <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="212.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
